--- a/Test files/Spannings test.xlsx
+++ b/Test files/Spannings test.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin Gort\Desktop\PMOR AED Drone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin Gort\Documents\GitHub\Drone-Interface\Test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55A0BCB5-0A2B-493E-8936-D0D254D93793}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8992CC-E8B9-4084-A7AC-801512D453F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52862BB9-8A7F-4949-B47C-4F4C632E8A5B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Algemeen" sheetId="3" r:id="rId1"/>
+    <sheet name="Spannings test" sheetId="1" r:id="rId2"/>
+    <sheet name="IO Test" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>Verbind de voedings kabels op de Vin</t>
   </si>
@@ -76,13 +78,109 @@
   </si>
   <si>
     <t>Don't touch!</t>
+  </si>
+  <si>
+    <t>Verbind de Arduino met een PC via USB</t>
+  </si>
+  <si>
+    <t>Open de arduino software en open de Serial monitor</t>
+  </si>
+  <si>
+    <t>Power led is aan en lock led is uit</t>
+  </si>
+  <si>
+    <t>druk op de lock button</t>
+  </si>
+  <si>
+    <t>Power led is aan en lock led is aan</t>
+  </si>
+  <si>
+    <t>heeft de buzzer kort gepiept?</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Er is geen "Error" gegeven op de serial monitor</t>
+  </si>
+  <si>
+    <t>Sluit D0 kort met GND</t>
+  </si>
+  <si>
+    <t>Is in de serial monitor aangegeven dat de EXT_PWM 255 is</t>
+  </si>
+  <si>
+    <t>Is in de serial monitor aangegeven dat de EXT_PWM 0 is</t>
+  </si>
+  <si>
+    <t>Sluit DI0 kort met GND</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Alle testen dienen in volgorde uitgevoerd te worden</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>tenzij anders aangegeven</t>
+  </si>
+  <si>
+    <t>Alle waardes dienen geselecteerd teworden uit de keuze lijst</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Blijf de testen uitvoeren tot het einde van het blok</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Na uitvoeren van de test bewaar dit bestand met de datum van de uitvoering</t>
+  </si>
+  <si>
+    <t>Algemene informatie</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>uit te voeren test bloken</t>
+  </si>
+  <si>
+    <t>Test waarde is incorrect/ Test blok is afgerond met fout(en)</t>
+  </si>
+  <si>
+    <t>Test waarde is correct/ Test blok is afgerond zonder fout(en)</t>
+  </si>
+  <si>
+    <t>Test afronding niet ingevoerd</t>
+  </si>
+  <si>
+    <t>Legenda</t>
+  </si>
+  <si>
+    <t>Test informatie</t>
+  </si>
+  <si>
+    <t>Datum van uitvoering</t>
+  </si>
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>Test status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,13 +195,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -284,22 +424,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -309,388 +453,858 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
+    <cellStyle name="Goed" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutraal" xfId="4" builtinId="28"/>
+    <cellStyle name="Ongeldig" xfId="3" builtinId="27"/>
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+  <dxfs count="80">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1023,114 +1637,365 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A91B4A-6366-401B-8A41-9D318CFF5669}">
+  <dimension ref="B1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="36"/>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="37"/>
+      <c r="C11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="42"/>
+      <c r="C12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="29"/>
+      <c r="C13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
+    </row>
+    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D12:I12"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:I19" xr:uid="{D783056A-1D3B-418A-BD13-B9C410B85CC5}">
+      <formula1>"-,Product voldoet,Product voldoet niet"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75BF778-9AFF-4965-8800-30F91BB097C4}">
   <dimension ref="B2:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="36.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="19"/>
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
+      <c r="B4" s="20">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6"/>
+      <c r="D4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="23"/>
       <c r="F4">
-        <f>D4</f>
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
+        <f>IF(D4=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="15">
+      <c r="B5" s="24">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="17">
-        <v>1</v>
-      </c>
-      <c r="E5" s="18"/>
+      <c r="D5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="27"/>
       <c r="F5">
-        <f>D5</f>
-        <v>1</v>
+        <f>IF(D5=TRUE,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="15">
+      <c r="B6" s="24">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="17">
-        <v>12</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="26">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>3</v>
       </c>
       <c r="F6">
-        <f>IF(AND(12-12*P4&lt;D6,D6&lt;12+12*P4),1,0)</f>
-        <v>1</v>
+        <f>IF(AND(12-12*H4&lt;D6,D6&lt;12+12*H4),1,0)</f>
+        <v>0</v>
       </c>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="20">
+      <c r="B7" s="28">
         <v>4</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10"/>
+      <c r="D7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="31"/>
       <c r="F7">
-        <f>D7</f>
-        <v>1</v>
+        <f>IF(D7=TRUE,1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="str">
         <f>IF(SUM(F4:F7)=ROWS(F4:F7),"Ga verder met de test", "Stop met testen er is iets fout gegaan")</f>
-        <v>Ga verder met de test</v>
+        <v>Stop met testen er is iets fout gegaan</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -1138,78 +2003,78 @@
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="B11" s="20">
         <v>5</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11">
+        <f>IF(D11=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="24">
+        <v>6</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12">
+        <f>IF(D12=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="24">
+        <v>7</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f>IF(AND(0-1*H4&lt;D13,D13&lt;0+1*H4),1,0)</f>
         <v>1</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11">
-        <f>D11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="15">
-        <v>6</v>
-      </c>
-      <c r="C12" s="17" t="s">
+    </row>
+    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="28">
         <v>8</v>
       </c>
-      <c r="D12" s="17">
-        <v>1</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12">
-        <f>D12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="15">
-        <v>7</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="17">
-        <v>0</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="C14" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="30">
+        <v>0</v>
+      </c>
+      <c r="E14" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F13">
-        <f>IF(AND(0-1*P4&lt;D13,D13&lt;0+1*P4),1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="4">
-        <v>8</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="9">
-        <v>12</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>3</v>
-      </c>
       <c r="F14">
-        <f>IF(AND(12-12*$P$4&lt;D14,D14&lt;12+12*$P$4),1,0)</f>
-        <v>1</v>
+        <f>IF(AND(12-12*$H$4&lt;D14,D14&lt;12+12*$H$4),1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="11" t="str">
         <f>IF(SUM(F11:F14)=ROWS(F11:F14),"Ga verder met de test", "Stop met testen er is iets fout gegaan")</f>
-        <v>Ga verder met de test</v>
+        <v>Stop met testen er is iets fout gegaan</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -1217,62 +2082,62 @@
     </row>
     <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
+      <c r="B18" s="21">
         <v>9</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6"/>
+      <c r="D18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="23"/>
       <c r="F18">
-        <f>D18</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="16">
+        <f>IF(D18=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="25">
         <v>10</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="9">
-        <v>12</v>
-      </c>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="26">
+        <v>0</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>3</v>
       </c>
       <c r="F19">
-        <f>IF(AND(12-12*$P$4&lt;D19,D19&lt;12+12*$P$4),1,0)</f>
-        <v>1</v>
+        <f>IF(AND(12-12*$H$4&lt;D19,D19&lt;12+12*$H$4),1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="8">
+      <c r="B20" s="29">
         <v>11</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="9">
-        <v>5</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="30">
+        <v>0</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>3</v>
       </c>
       <c r="F20">
-        <f>IF(AND(5-5*$P$4&lt;D20,D20&lt;5+5*$P$4),1,0)</f>
-        <v>1</v>
+        <f>IF(AND(5-5*$H$4&lt;D20,D20&lt;5+5*$H$4),1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="11" t="str">
         <f>IF(SUM(F18:F20)=ROWS(F18:F20),"Ga verder met de test", "Stop met testen er is iets fout gegaan")</f>
-        <v>Ga verder met de test</v>
+        <v>Stop met testen er is iets fout gegaan</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1281,8 +2146,8 @@
     <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="11" t="str">
-        <f>IF(AND(SUM(F4:F7)=ROWS(F4:F7),SUM(F11:F14)=ROWS(F11:F14),SUM(F18:F20)=ROWS(F18:F20)),"Alles testen zijn succesvol voltooid", "Test afgebroken ergens ging iets fout")</f>
-        <v>Alles testen zijn succesvol voltooid</v>
+        <f>IF(AND(SUM(F4:F7)=ROWS(F4:F7),SUM(F11:F14)=ROWS(F11:F14),SUM(F18:F20)=ROWS(F18:F20)),"Alle testen zijn succesvol voltooid", "Test afgebroken ergens ging iets fout")</f>
+        <v>Test afgebroken ergens ging iets fout</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -1296,69 +2161,478 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B22:E22"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="29" priority="14" operator="between">
-      <formula>12+12*$P$4</formula>
-      <formula>12-12*$P$4</formula>
+  <conditionalFormatting sqref="D6 D14 D19">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="between">
+      <formula>12+12*$H$4</formula>
+      <formula>12-12*$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="15" operator="lessThan">
-      <formula>12-12*$P$4</formula>
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="lessThan">
+      <formula>12-12*$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="16" operator="greaterThan">
-      <formula>12+12*$P$4</formula>
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="greaterThan">
+      <formula>12+12*$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="between">
-      <formula>0+1*$P$4</formula>
-      <formula>0-1*$P$4</formula>
+    <cfRule type="cellIs" dxfId="12" priority="27" operator="between">
+      <formula>0+1*$H$4</formula>
+      <formula>0-1*$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="lessThan">
-      <formula>0-1*$P$4</formula>
+    <cfRule type="cellIs" dxfId="11" priority="28" operator="lessThan">
+      <formula>0-1*$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="greaterThan">
-      <formula>0+1*$P$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="between">
-      <formula>12+12*$P$4</formula>
-      <formula>12-12*$P$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="lessThan">
-      <formula>12-12*$P$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="greaterThan">
-      <formula>12+12*$P$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="between">
-      <formula>12+12*$P$4</formula>
-      <formula>12-12*$P$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="lessThan">
-      <formula>12-12*$P$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="greaterThan">
-      <formula>12+12*$P$4</formula>
+    <cfRule type="cellIs" dxfId="10" priority="29" operator="greaterThan">
+      <formula>0+1*$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="between">
-      <formula>5+5*$P$4</formula>
-      <formula>5-5*$P$4</formula>
+    <cfRule type="cellIs" dxfId="9" priority="36" operator="between">
+      <formula>5+5*$H$4</formula>
+      <formula>5-5*$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThan">
-      <formula>5-5*$P$4</formula>
+    <cfRule type="cellIs" dxfId="8" priority="37" operator="lessThan">
+      <formula>5-5*$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
-      <formula>5+5*$P$4</formula>
+    <cfRule type="cellIs" dxfId="7" priority="38" operator="greaterThan">
+      <formula>5+5*$H$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:E24">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"Alle testen zijn succesvol voltooid"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Test afgebroken ergens ging iets fout"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:E9 B16:E16 B22:E22">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"Ga verder met de test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"Stop met testen er is iets fout gegaan"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D5 D7 D11:D12 D18">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D5 D7 D11:D12 D18">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D5 D7 D11:D12 D18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13" xr:uid="{C267C5D5-CAF2-4A63-81CC-BB97E7105954}">
+      <formula1>"1,0"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4:D5 D7 D11:D12 D18" xr:uid="{DCB3047B-71D6-4161-8BEB-5FACCD3D9C2F}">
+      <formula1>"-,Waar,Onwaar"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9512A0BF-ABE3-4CDE-9840-D38172BBB30F}">
+  <dimension ref="B2:P31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="51.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="20">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4">
+        <f>IF(D4=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="24">
+        <v>2</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5">
+        <f t="shared" ref="F5:F27" si="0">IF(D5=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="24">
+        <v>3</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="24">
+        <v>4</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="24">
+        <v>5</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="28">
+        <v>6</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="11" t="str">
+        <f>IF(SUM(F4:F9)=ROWS(F4:F9),"Ga verder met de test", "Stop met testen er is iets fout gegaan")</f>
+        <v>Stop met testen er is iets fout gegaan</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="20">
+        <v>7</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="24">
+        <v>8</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="24">
+        <v>9</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="28">
+        <v>10</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="11" t="str">
+        <f>IF(SUM(F13:F16)=ROWS(F13:F16),"Ga verder met de test", "Stop met testen er is iets fout gegaan")</f>
+        <v>Stop met testen er is iets fout gegaan</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="20">
+        <v>11</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="24">
+        <v>12</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="24">
+        <v>13</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="28">
+        <v>14</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="11" t="str">
+        <f>IF(SUM(F20:F23)=ROWS(F20:F23),"Ga verder met de test", "Stop met testen er is iets fout gegaan")</f>
+        <v>Stop met testen er is iets fout gegaan</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="16">
+        <v>15</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="11" t="str">
+        <f>IF(SUM(F27)=ROWS(F27),"Ga verder met de test", "Stop met testen er is iets fout gegaan")</f>
+        <v>Stop met testen er is iets fout gegaan</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="11" t="str">
+        <f>IF(AND(SUM(F4:F9)=ROWS(F4:F9),SUM(F13:F16)=ROWS(F13:F16),SUM(F20:F23)=ROWS(F20:F23),SUM(F27)=ROWS(F27)),"Alle testen zijn succesvol voltooid", "Test afgebroken ergens ging iets fout")</f>
+        <v>Test afgebroken ergens ging iets fout</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B25:E25"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B31:E31">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+      <formula>"Test afgebroken ergens ging iets fout"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+      <formula>"Alle testen zijn succesvol voltooid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:E11 B18:E18 B25:E25 B29:E29">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+      <formula>"Stop met testen er is iets fout gegaan"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+      <formula>"Ga verder met de test"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27 D20:D23 D4:D9 D13:D16">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D9 D13:D16 D20:D23 D27">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D13 D18 D4:D5 D7" xr:uid="{C267C5D5-CAF2-4A63-81CC-BB97E7105954}">
-      <formula1>"1,0"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4:D9 D13:D16 D20:D23 D27" xr:uid="{87152C34-0477-43A4-9BAD-E5180D24D809}">
+      <formula1>"-,Waar,Onwaar"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
